--- a/CHAD Model/DataAccess/Templates/InputDrought.xlsx
+++ b/CHAD Model/DataAccess/Templates/InputDrought.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsotn\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C1AC8-96BC-4D6F-8F9E-24513C7CDD71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{EFC7906E-DF9E-46B5-8877-FA2542BFD600}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -60,8 +66,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,7 +105,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -108,7 +117,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -155,6 +164,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -190,6 +216,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,104 +384,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC33A94-FA8C-4C5C-A90B-85210D8DC4B8}">
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.2</v>
+      <c r="B5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.4</v>
+      <c r="B6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.7</v>
+      <c r="B9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
